--- a/database/industries/kashi/kazar/product/quarterly_seprated.xlsx
+++ b/database/industries/kashi/kazar/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kazar\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kazar\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDF320D-730D-4622-9213-5E758CE21EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29E0B07-6B16-478B-A1E0-42BCCD588026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="60">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -657,16 +672,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I121"/>
+  <dimension ref="B1:N121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -675,8 +690,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -687,8 +707,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -699,8 +724,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -709,8 +739,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -721,8 +756,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -733,8 +773,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -743,8 +788,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -765,8 +815,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -775,10 +840,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -787,126 +857,206 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>12</v>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
       </c>
       <c r="G11" s="11">
         <v>0</v>
       </c>
-      <c r="H11" s="11">
-        <v>0</v>
+      <c r="H11" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I11" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>6132</v>
+      </c>
+      <c r="F12" s="13">
+        <v>5514</v>
+      </c>
+      <c r="G12" s="13">
+        <v>6121</v>
+      </c>
+      <c r="H12" s="13">
+        <v>5118</v>
+      </c>
+      <c r="I12" s="13">
+        <v>5224</v>
+      </c>
+      <c r="J12" s="13">
         <v>3705</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="K12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="13">
         <v>4421</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>3772</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>4701</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>8864</v>
+      </c>
+      <c r="F13" s="11">
+        <v>7693</v>
+      </c>
+      <c r="G13" s="11">
+        <v>7060</v>
+      </c>
+      <c r="H13" s="11">
+        <v>9209</v>
+      </c>
+      <c r="I13" s="11">
+        <v>6346</v>
+      </c>
+      <c r="J13" s="11">
         <v>3260</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="K13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="11">
         <v>4005</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>2317</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>4269</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="13">
+      <c r="E14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="13">
         <v>2125</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="K14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="13">
         <v>3986</v>
       </c>
-      <c r="H14" s="13">
+      <c r="M14" s="13">
         <v>3666</v>
       </c>
-      <c r="I14" s="13">
+      <c r="N14" s="13">
         <v>2006</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15">
+        <v>14996</v>
+      </c>
+      <c r="F15" s="15">
+        <v>13207</v>
+      </c>
+      <c r="G15" s="15">
+        <v>13181</v>
+      </c>
+      <c r="H15" s="15">
+        <v>14327</v>
+      </c>
+      <c r="I15" s="15">
+        <v>11570</v>
+      </c>
+      <c r="J15" s="15">
         <v>9090</v>
       </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15">
+      <c r="K15" s="15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="15">
         <v>12412</v>
       </c>
-      <c r="H15" s="15">
+      <c r="M15" s="15">
         <v>9755</v>
       </c>
-      <c r="I15" s="15">
+      <c r="N15" s="15">
         <v>10976</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -915,68 +1065,103 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>14</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
         <v>0</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>12</v>
+      <c r="F19" s="11">
+        <v>0</v>
       </c>
       <c r="G19" s="11">
         <v>0</v>
@@ -987,20 +1172,35 @@
       <c r="I19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
         <v>0</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>12</v>
+      <c r="F20" s="13">
+        <v>0</v>
       </c>
       <c r="G20" s="13">
         <v>0</v>
@@ -1011,10 +1211,25 @@
       <c r="I20" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="13">
+        <v>0</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="13">
+        <v>0</v>
+      </c>
+      <c r="M20" s="13">
+        <v>0</v>
+      </c>
+      <c r="N20" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -1033,10 +1248,25 @@
       <c r="I21" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="15">
+        <v>0</v>
+      </c>
+      <c r="K21" s="15">
+        <v>0</v>
+      </c>
+      <c r="L21" s="15">
+        <v>0</v>
+      </c>
+      <c r="M21" s="15">
+        <v>0</v>
+      </c>
+      <c r="N21" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1045,10 +1275,15 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1061,24 +1296,39 @@
       <c r="G23" s="11">
         <v>0</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
         <v>0</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>12</v>
+      <c r="F24" s="13">
+        <v>0</v>
       </c>
       <c r="G24" s="13">
         <v>0</v>
@@ -1089,32 +1339,62 @@
       <c r="I24" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="13">
+        <v>0</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="13">
+        <v>0</v>
+      </c>
+      <c r="M24" s="13">
+        <v>0</v>
+      </c>
+      <c r="N24" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -1133,76 +1413,136 @@
       <c r="I26" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="17">
+        <v>0</v>
+      </c>
+      <c r="K26" s="17">
+        <v>0</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="17">
+        <v>0</v>
+      </c>
+      <c r="N26" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D27" s="15"/>
-      <c r="E27" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>12</v>
+      <c r="E27" s="15">
+        <v>0</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17">
         <v>0</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>12</v>
+      <c r="F28" s="17">
+        <v>0</v>
       </c>
       <c r="G28" s="17">
         <v>0</v>
       </c>
-      <c r="H28" s="17">
-        <v>0</v>
+      <c r="H28" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="I28" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="17">
+        <v>0</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+      <c r="M28" s="17">
+        <v>0</v>
+      </c>
+      <c r="N28" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15">
+        <v>14996</v>
+      </c>
+      <c r="F29" s="15">
+        <v>13207</v>
+      </c>
+      <c r="G29" s="15">
+        <v>13181</v>
+      </c>
+      <c r="H29" s="15">
+        <v>14327</v>
+      </c>
+      <c r="I29" s="15">
+        <v>11570</v>
+      </c>
+      <c r="J29" s="15">
         <v>9090</v>
       </c>
-      <c r="F29" s="15">
-        <v>0</v>
-      </c>
-      <c r="G29" s="15">
+      <c r="K29" s="15">
+        <v>0</v>
+      </c>
+      <c r="L29" s="15">
         <v>12412</v>
       </c>
-      <c r="H29" s="15">
+      <c r="M29" s="15">
         <v>9755</v>
       </c>
-      <c r="I29" s="15">
+      <c r="N29" s="15">
         <v>10976</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1211,8 +1551,13 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1221,8 +1566,13 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1231,10 +1581,15 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1253,8 +1608,23 @@
       <c r="I33" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1263,10 +1633,15 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -1275,128 +1650,208 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>12</v>
+      <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>36634</v>
       </c>
       <c r="G36" s="11">
+        <v>-36634</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="11">
+        <v>-232</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="11">
         <v>161</v>
       </c>
-      <c r="H36" s="11">
+      <c r="M36" s="11">
         <v>119</v>
       </c>
-      <c r="I36" s="11">
+      <c r="N36" s="11">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
+        <v>275158</v>
+      </c>
+      <c r="F37" s="13">
+        <v>259160</v>
+      </c>
+      <c r="G37" s="13">
+        <v>368857</v>
+      </c>
+      <c r="H37" s="13">
+        <v>387898</v>
+      </c>
+      <c r="I37" s="13">
+        <v>369039</v>
+      </c>
+      <c r="J37" s="13">
         <v>342016</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="13">
+      <c r="K37" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="13">
         <v>664941</v>
       </c>
-      <c r="H37" s="13">
+      <c r="M37" s="13">
         <v>553062</v>
       </c>
-      <c r="I37" s="13">
+      <c r="N37" s="13">
         <v>701409</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
+        <v>318503</v>
+      </c>
+      <c r="F38" s="11">
+        <v>264341</v>
+      </c>
+      <c r="G38" s="11">
+        <v>247692</v>
+      </c>
+      <c r="H38" s="11">
+        <v>463812</v>
+      </c>
+      <c r="I38" s="11">
+        <v>317907</v>
+      </c>
+      <c r="J38" s="11">
         <v>247612</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="11">
+      <c r="K38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="11">
         <v>397715</v>
       </c>
-      <c r="H38" s="11">
+      <c r="M38" s="11">
         <v>227357</v>
       </c>
-      <c r="I38" s="11">
+      <c r="N38" s="11">
         <v>411923</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D39" s="13"/>
-      <c r="E39" s="13">
+      <c r="E39" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="13">
         <v>23374</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="13">
+      <c r="K39" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="13">
         <v>59401</v>
       </c>
-      <c r="H39" s="13">
+      <c r="M39" s="13">
         <v>54637</v>
       </c>
-      <c r="I39" s="13">
+      <c r="N39" s="13">
         <v>34109</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15">
+        <v>593661</v>
+      </c>
+      <c r="F40" s="15">
+        <v>560135</v>
+      </c>
+      <c r="G40" s="15">
+        <v>579915</v>
+      </c>
+      <c r="H40" s="15">
+        <v>851710</v>
+      </c>
+      <c r="I40" s="15">
+        <v>686714</v>
+      </c>
+      <c r="J40" s="15">
         <v>613002</v>
       </c>
-      <c r="F40" s="15">
-        <v>0</v>
-      </c>
-      <c r="G40" s="15">
+      <c r="K40" s="15">
+        <v>0</v>
+      </c>
+      <c r="L40" s="15">
         <v>1122218</v>
       </c>
-      <c r="H40" s="15">
+      <c r="M40" s="15">
         <v>835175</v>
       </c>
-      <c r="I40" s="15">
+      <c r="N40" s="15">
         <v>1147560</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -1405,68 +1860,103 @@
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
         <v>0</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>12</v>
+      <c r="F44" s="11">
+        <v>0</v>
       </c>
       <c r="G44" s="11">
         <v>0</v>
@@ -1477,20 +1967,35 @@
       <c r="I44" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+      <c r="N44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
         <v>0</v>
       </c>
-      <c r="F45" s="13" t="s">
-        <v>12</v>
+      <c r="F45" s="13">
+        <v>0</v>
       </c>
       <c r="G45" s="13">
         <v>0</v>
@@ -1501,10 +2006,25 @@
       <c r="I45" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="13">
+        <v>0</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="13">
+        <v>0</v>
+      </c>
+      <c r="M45" s="13">
+        <v>0</v>
+      </c>
+      <c r="N45" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
@@ -1523,10 +2043,25 @@
       <c r="I46" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="15">
+        <v>0</v>
+      </c>
+      <c r="K46" s="15">
+        <v>0</v>
+      </c>
+      <c r="L46" s="15">
+        <v>0</v>
+      </c>
+      <c r="M46" s="15">
+        <v>0</v>
+      </c>
+      <c r="N46" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -1535,47 +2070,67 @@
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
+        <v>23517</v>
+      </c>
+      <c r="F48" s="11">
+        <v>0</v>
+      </c>
+      <c r="G48" s="11">
+        <v>-36634</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>4140</v>
+      </c>
+      <c r="J48" s="11">
         <v>6579</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>-6579</v>
       </c>
-      <c r="G48" s="11">
-        <v>0</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
         <v>0</v>
       </c>
-      <c r="F49" s="13" t="s">
-        <v>12</v>
+      <c r="F49" s="13">
+        <v>-28136</v>
       </c>
       <c r="G49" s="13">
-        <v>0</v>
+        <v>34111</v>
       </c>
       <c r="H49" s="13">
         <v>0</v>
@@ -1583,124 +2138,214 @@
       <c r="I49" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="13">
+        <v>0</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="13">
+        <v>0</v>
+      </c>
+      <c r="M49" s="13">
+        <v>0</v>
+      </c>
+      <c r="N49" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="11">
-        <v>0</v>
-      </c>
-      <c r="I50" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50" s="11">
+        <v>0</v>
+      </c>
+      <c r="N50" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
       <c r="E51" s="17">
+        <v>23517</v>
+      </c>
+      <c r="F51" s="17">
+        <v>-28136</v>
+      </c>
+      <c r="G51" s="17">
+        <v>-2523</v>
+      </c>
+      <c r="H51" s="17">
+        <v>0</v>
+      </c>
+      <c r="I51" s="17">
+        <v>4140</v>
+      </c>
+      <c r="J51" s="17">
         <v>6579</v>
       </c>
-      <c r="F51" s="17">
+      <c r="K51" s="17">
         <v>-6579</v>
       </c>
-      <c r="G51" s="17">
-        <v>0</v>
-      </c>
-      <c r="H51" s="17">
-        <v>0</v>
-      </c>
-      <c r="I51" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L51" s="17">
+        <v>0</v>
+      </c>
+      <c r="M51" s="17">
+        <v>0</v>
+      </c>
+      <c r="N51" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D52" s="15"/>
-      <c r="E52" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>12</v>
+      <c r="E52" s="15">
+        <v>0</v>
+      </c>
+      <c r="F52" s="15">
+        <v>0</v>
+      </c>
+      <c r="G52" s="15">
+        <v>0</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J52" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17">
         <v>0</v>
       </c>
-      <c r="F53" s="17" t="s">
-        <v>12</v>
+      <c r="F53" s="17">
+        <v>0</v>
       </c>
       <c r="G53" s="17">
         <v>0</v>
       </c>
-      <c r="H53" s="17">
-        <v>0</v>
+      <c r="H53" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="I53" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="17">
+        <v>0</v>
+      </c>
+      <c r="K53" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="17">
+        <v>0</v>
+      </c>
+      <c r="M53" s="17">
+        <v>0</v>
+      </c>
+      <c r="N53" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15">
+        <v>617178</v>
+      </c>
+      <c r="F54" s="15">
+        <v>531999</v>
+      </c>
+      <c r="G54" s="15">
+        <v>577392</v>
+      </c>
+      <c r="H54" s="15">
+        <v>851710</v>
+      </c>
+      <c r="I54" s="15">
+        <v>690854</v>
+      </c>
+      <c r="J54" s="15">
         <v>619581</v>
       </c>
-      <c r="F54" s="15">
+      <c r="K54" s="15">
         <v>-6579</v>
       </c>
-      <c r="G54" s="15">
+      <c r="L54" s="15">
         <v>1122218</v>
       </c>
-      <c r="H54" s="15">
+      <c r="M54" s="15">
         <v>835175</v>
       </c>
-      <c r="I54" s="15">
+      <c r="N54" s="15">
         <v>1147560</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1709,8 +2354,13 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1719,8 +2369,13 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1729,10 +2384,15 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -1751,8 +2411,23 @@
       <c r="I58" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1761,10 +2436,15 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -1773,106 +2453,171 @@
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N61" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
+        <v>44872472</v>
+      </c>
+      <c r="F62" s="13">
+        <v>47000363</v>
+      </c>
+      <c r="G62" s="13">
+        <v>63508437</v>
+      </c>
+      <c r="H62" s="13">
+        <v>75790934</v>
+      </c>
+      <c r="I62" s="13">
+        <v>70642994</v>
+      </c>
+      <c r="J62" s="13">
         <v>96369682</v>
       </c>
-      <c r="F62" s="13">
+      <c r="K62" s="13">
         <v>145897466</v>
       </c>
-      <c r="G62" s="13">
+      <c r="L62" s="13">
         <v>150405112</v>
       </c>
-      <c r="H62" s="13">
+      <c r="M62" s="13">
         <v>146623012</v>
       </c>
-      <c r="I62" s="13">
+      <c r="N62" s="13">
         <v>149204212</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
+        <v>35932198</v>
+      </c>
+      <c r="F63" s="11">
+        <v>34361237</v>
+      </c>
+      <c r="G63" s="11">
+        <v>35004522</v>
+      </c>
+      <c r="H63" s="11">
+        <v>50365078</v>
+      </c>
+      <c r="I63" s="11">
+        <v>50095651</v>
+      </c>
+      <c r="J63" s="11">
         <v>71949942</v>
       </c>
-      <c r="F63" s="11">
+      <c r="K63" s="11">
         <v>73943501</v>
       </c>
-      <c r="G63" s="11">
+      <c r="L63" s="11">
         <v>99304619</v>
       </c>
-      <c r="H63" s="11">
+      <c r="M63" s="11">
         <v>98125593</v>
       </c>
-      <c r="I63" s="11">
+      <c r="N63" s="11">
         <v>96491684</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D64" s="13"/>
-      <c r="E64" s="13">
+      <c r="E64" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="13">
         <v>10999529</v>
       </c>
-      <c r="F64" s="13">
+      <c r="K64" s="13">
         <v>10999809</v>
       </c>
-      <c r="G64" s="13">
+      <c r="L64" s="13">
         <v>14902408</v>
       </c>
-      <c r="H64" s="13">
+      <c r="M64" s="13">
         <v>14903710</v>
       </c>
-      <c r="I64" s="13">
+      <c r="N64" s="13">
         <v>17003490</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -1881,106 +2626,171 @@
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M66" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M67" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N67" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M69" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N69" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -1989,80 +2799,130 @@
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M72" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N72" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2071,8 +2931,13 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2081,8 +2946,13 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2091,10 +2961,15 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -2113,8 +2988,23 @@
       <c r="I77" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M77" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2123,10 +3013,15 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -2135,17 +3030,22 @@
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11" t="s">
-        <v>12</v>
+      <c r="E80" s="11">
+        <v>0</v>
       </c>
       <c r="F80" s="11">
         <v>0</v>
@@ -2153,110 +3053,185 @@
       <c r="G80" s="11">
         <v>0</v>
       </c>
-      <c r="H80" s="11">
-        <v>0</v>
+      <c r="H80" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I80" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" s="11">
+        <v>0</v>
+      </c>
+      <c r="L80" s="11">
+        <v>0</v>
+      </c>
+      <c r="M80" s="11">
+        <v>0</v>
+      </c>
+      <c r="N80" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
+        <v>-149222</v>
+      </c>
+      <c r="F81" s="13">
+        <v>-182269</v>
+      </c>
+      <c r="G81" s="13">
+        <v>-233570</v>
+      </c>
+      <c r="H81" s="13">
+        <v>-275149</v>
+      </c>
+      <c r="I81" s="13">
+        <v>-205949</v>
+      </c>
+      <c r="J81" s="13">
         <v>-255539</v>
       </c>
-      <c r="F81" s="13">
+      <c r="K81" s="13">
         <v>-476053</v>
       </c>
-      <c r="G81" s="13">
+      <c r="L81" s="13">
         <v>-510556</v>
       </c>
-      <c r="H81" s="13">
+      <c r="M81" s="13">
         <v>-430716</v>
       </c>
-      <c r="I81" s="13">
+      <c r="N81" s="13">
         <v>-497084</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
+        <v>-151035</v>
+      </c>
+      <c r="F82" s="11">
+        <v>-96507</v>
+      </c>
+      <c r="G82" s="11">
+        <v>-109753</v>
+      </c>
+      <c r="H82" s="11">
+        <v>-184273</v>
+      </c>
+      <c r="I82" s="11">
+        <v>-137987</v>
+      </c>
+      <c r="J82" s="11">
         <v>-128792</v>
       </c>
-      <c r="F82" s="11">
+      <c r="K82" s="11">
         <v>-107569</v>
       </c>
-      <c r="G82" s="11">
+      <c r="L82" s="11">
         <v>-197285</v>
       </c>
-      <c r="H82" s="11">
+      <c r="M82" s="11">
         <v>-182536</v>
       </c>
-      <c r="I82" s="11">
+      <c r="N82" s="11">
         <v>-167992</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D83" s="13"/>
-      <c r="E83" s="13">
-        <v>0</v>
-      </c>
-      <c r="F83" s="13">
-        <v>0</v>
-      </c>
-      <c r="G83" s="13">
-        <v>0</v>
-      </c>
-      <c r="H83" s="13">
-        <v>0</v>
-      </c>
-      <c r="I83" s="13">
+      <c r="E83" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="13">
+        <v>0</v>
+      </c>
+      <c r="K83" s="13">
+        <v>0</v>
+      </c>
+      <c r="L83" s="13">
+        <v>0</v>
+      </c>
+      <c r="M83" s="13">
+        <v>0</v>
+      </c>
+      <c r="N83" s="13">
         <v>-20973</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15">
+        <v>-300257</v>
+      </c>
+      <c r="F84" s="15">
+        <v>-278776</v>
+      </c>
+      <c r="G84" s="15">
+        <v>-343323</v>
+      </c>
+      <c r="H84" s="15">
+        <v>-459422</v>
+      </c>
+      <c r="I84" s="15">
+        <v>-343936</v>
+      </c>
+      <c r="J84" s="15">
         <v>-384331</v>
       </c>
-      <c r="F84" s="15">
+      <c r="K84" s="15">
         <v>-583622</v>
       </c>
-      <c r="G84" s="15">
+      <c r="L84" s="15">
         <v>-707841</v>
       </c>
-      <c r="H84" s="15">
+      <c r="M84" s="15">
         <v>-613252</v>
       </c>
-      <c r="I84" s="15">
+      <c r="N84" s="15">
         <v>-686049</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -2265,61 +3240,96 @@
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M86" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J87" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L87" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M87" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N87" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
@@ -2337,13 +3347,28 @@
       <c r="I88" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="11">
+        <v>0</v>
+      </c>
+      <c r="K88" s="11">
+        <v>0</v>
+      </c>
+      <c r="L88" s="11">
+        <v>0</v>
+      </c>
+      <c r="M88" s="11">
+        <v>0</v>
+      </c>
+      <c r="N88" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
@@ -2361,10 +3386,25 @@
       <c r="I89" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="13">
+        <v>0</v>
+      </c>
+      <c r="K89" s="13">
+        <v>0</v>
+      </c>
+      <c r="L89" s="13">
+        <v>0</v>
+      </c>
+      <c r="M89" s="13">
+        <v>0</v>
+      </c>
+      <c r="N89" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
@@ -2383,10 +3423,25 @@
       <c r="I90" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="15">
+        <v>0</v>
+      </c>
+      <c r="K90" s="15">
+        <v>0</v>
+      </c>
+      <c r="L90" s="15">
+        <v>0</v>
+      </c>
+      <c r="M90" s="15">
+        <v>0</v>
+      </c>
+      <c r="N90" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -2395,37 +3450,57 @@
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
+        <v>-3964</v>
+      </c>
+      <c r="F92" s="11">
+        <v>7659</v>
+      </c>
+      <c r="G92" s="11">
+        <v>0</v>
+      </c>
+      <c r="H92" s="11">
+        <v>0</v>
+      </c>
+      <c r="I92" s="11">
+        <v>-3064</v>
+      </c>
+      <c r="J92" s="11">
         <v>3064</v>
       </c>
-      <c r="F92" s="11">
-        <v>0</v>
-      </c>
-      <c r="G92" s="11">
-        <v>0</v>
-      </c>
-      <c r="H92" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I92" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K92" s="11">
+        <v>0</v>
+      </c>
+      <c r="L92" s="11">
+        <v>0</v>
+      </c>
+      <c r="M92" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N92" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="13">
@@ -2435,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="13">
-        <v>0</v>
+        <v>-25242</v>
       </c>
       <c r="H93" s="13">
         <v>0</v>
@@ -2443,124 +3518,214 @@
       <c r="I93" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="13">
+        <v>0</v>
+      </c>
+      <c r="K93" s="13">
+        <v>0</v>
+      </c>
+      <c r="L93" s="13">
+        <v>0</v>
+      </c>
+      <c r="M93" s="13">
+        <v>0</v>
+      </c>
+      <c r="N93" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" s="11">
-        <v>0</v>
-      </c>
-      <c r="I94" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M94" s="11">
+        <v>0</v>
+      </c>
+      <c r="N94" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
       <c r="E95" s="17">
+        <v>-3964</v>
+      </c>
+      <c r="F95" s="17">
+        <v>7659</v>
+      </c>
+      <c r="G95" s="17">
+        <v>-25242</v>
+      </c>
+      <c r="H95" s="17">
+        <v>0</v>
+      </c>
+      <c r="I95" s="17">
+        <v>-3064</v>
+      </c>
+      <c r="J95" s="17">
         <v>3064</v>
       </c>
-      <c r="F95" s="17">
-        <v>0</v>
-      </c>
-      <c r="G95" s="17">
-        <v>0</v>
-      </c>
-      <c r="H95" s="17">
-        <v>0</v>
-      </c>
-      <c r="I95" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K95" s="17">
+        <v>0</v>
+      </c>
+      <c r="L95" s="17">
+        <v>0</v>
+      </c>
+      <c r="M95" s="17">
+        <v>0</v>
+      </c>
+      <c r="N95" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D96" s="15"/>
-      <c r="E96" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" s="15" t="s">
-        <v>12</v>
+      <c r="E96" s="15">
+        <v>0</v>
+      </c>
+      <c r="F96" s="15">
+        <v>0</v>
+      </c>
+      <c r="G96" s="15">
+        <v>0</v>
       </c>
       <c r="H96" s="15" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I96" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J96" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L96" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M96" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N96" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="17">
         <v>0</v>
       </c>
-      <c r="F97" s="17" t="s">
-        <v>12</v>
+      <c r="F97" s="17">
+        <v>0</v>
       </c>
       <c r="G97" s="17">
         <v>0</v>
       </c>
-      <c r="H97" s="17">
-        <v>0</v>
+      <c r="H97" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="I97" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="17">
+        <v>0</v>
+      </c>
+      <c r="K97" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L97" s="17">
+        <v>0</v>
+      </c>
+      <c r="M97" s="17">
+        <v>0</v>
+      </c>
+      <c r="N97" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
       <c r="E98" s="15">
+        <v>-304221</v>
+      </c>
+      <c r="F98" s="15">
+        <v>-271117</v>
+      </c>
+      <c r="G98" s="15">
+        <v>-368565</v>
+      </c>
+      <c r="H98" s="15">
+        <v>-459422</v>
+      </c>
+      <c r="I98" s="15">
+        <v>-347000</v>
+      </c>
+      <c r="J98" s="15">
         <v>-381267</v>
       </c>
-      <c r="F98" s="15">
+      <c r="K98" s="15">
         <v>-583622</v>
       </c>
-      <c r="G98" s="15">
+      <c r="L98" s="15">
         <v>-707841</v>
       </c>
-      <c r="H98" s="15">
+      <c r="M98" s="15">
         <v>-613252</v>
       </c>
-      <c r="I98" s="15">
+      <c r="N98" s="15">
         <v>-686049</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2569,8 +3734,13 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2579,8 +3749,13 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2589,10 +3764,15 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -2611,8 +3791,23 @@
       <c r="I102" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2621,10 +3816,15 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
@@ -2633,128 +3833,208 @@
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D105" s="11"/>
-      <c r="E105" s="11" t="s">
-        <v>12</v>
+      <c r="E105" s="11">
+        <v>0</v>
       </c>
       <c r="F105" s="11">
+        <v>36634</v>
+      </c>
+      <c r="G105" s="11">
+        <v>-36634</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I105" s="11">
+        <v>0</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K105" s="11">
         <v>564</v>
       </c>
-      <c r="G105" s="11">
+      <c r="L105" s="11">
         <v>161</v>
       </c>
-      <c r="H105" s="11">
+      <c r="M105" s="11">
         <v>119</v>
       </c>
-      <c r="I105" s="11">
+      <c r="N105" s="11">
         <v>119</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13">
+        <v>125936</v>
+      </c>
+      <c r="F106" s="13">
+        <v>76891</v>
+      </c>
+      <c r="G106" s="13">
+        <v>135287</v>
+      </c>
+      <c r="H106" s="13">
+        <v>112749</v>
+      </c>
+      <c r="I106" s="13">
+        <v>160598</v>
+      </c>
+      <c r="J106" s="13">
         <v>86477</v>
       </c>
-      <c r="F106" s="13">
+      <c r="K106" s="13">
         <v>151452</v>
       </c>
-      <c r="G106" s="13">
+      <c r="L106" s="13">
         <v>154385</v>
       </c>
-      <c r="H106" s="13">
+      <c r="M106" s="13">
         <v>122346</v>
       </c>
-      <c r="I106" s="13">
+      <c r="N106" s="13">
         <v>204325</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
+        <v>167468</v>
+      </c>
+      <c r="F107" s="11">
+        <v>167834</v>
+      </c>
+      <c r="G107" s="11">
+        <v>137939</v>
+      </c>
+      <c r="H107" s="11">
+        <v>279539</v>
+      </c>
+      <c r="I107" s="11">
+        <v>177295</v>
+      </c>
+      <c r="J107" s="11">
         <v>118428</v>
       </c>
-      <c r="F107" s="11">
+      <c r="K107" s="11">
         <v>118846</v>
       </c>
-      <c r="G107" s="11">
+      <c r="L107" s="11">
         <v>200430</v>
       </c>
-      <c r="H107" s="11">
+      <c r="M107" s="11">
         <v>44821</v>
       </c>
-      <c r="I107" s="11">
+      <c r="N107" s="11">
         <v>243931</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D108" s="13"/>
-      <c r="E108" s="13">
+      <c r="E108" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I108" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J108" s="13">
         <v>23374</v>
       </c>
-      <c r="F108" s="13">
+      <c r="K108" s="13">
         <v>57606</v>
       </c>
-      <c r="G108" s="13">
+      <c r="L108" s="13">
         <v>59401</v>
       </c>
-      <c r="H108" s="13">
+      <c r="M108" s="13">
         <v>54637</v>
       </c>
-      <c r="I108" s="13">
+      <c r="N108" s="13">
         <v>13136</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="15">
+        <v>293404</v>
+      </c>
+      <c r="F109" s="15">
+        <v>281359</v>
+      </c>
+      <c r="G109" s="15">
+        <v>236592</v>
+      </c>
+      <c r="H109" s="15">
+        <v>392288</v>
+      </c>
+      <c r="I109" s="15">
+        <v>337893</v>
+      </c>
+      <c r="J109" s="15">
         <v>228279</v>
       </c>
-      <c r="F109" s="15">
+      <c r="K109" s="15">
         <v>328468</v>
       </c>
-      <c r="G109" s="15">
+      <c r="L109" s="15">
         <v>414377</v>
       </c>
-      <c r="H109" s="15">
+      <c r="M109" s="15">
         <v>221923</v>
       </c>
-      <c r="I109" s="15">
+      <c r="N109" s="15">
         <v>461511</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
@@ -2763,61 +4043,96 @@
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J111" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K111" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L111" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M111" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N111" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D112" s="13"/>
       <c r="E112" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I112" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J112" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K112" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L112" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M112" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N112" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11">
@@ -2835,13 +4150,28 @@
       <c r="I113" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="11">
+        <v>0</v>
+      </c>
+      <c r="K113" s="11">
+        <v>0</v>
+      </c>
+      <c r="L113" s="11">
+        <v>0</v>
+      </c>
+      <c r="M113" s="11">
+        <v>0</v>
+      </c>
+      <c r="N113" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
@@ -2859,10 +4189,25 @@
       <c r="I114" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J114" s="13">
+        <v>0</v>
+      </c>
+      <c r="K114" s="13">
+        <v>0</v>
+      </c>
+      <c r="L114" s="13">
+        <v>0</v>
+      </c>
+      <c r="M114" s="13">
+        <v>0</v>
+      </c>
+      <c r="N114" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
@@ -2881,10 +4226,25 @@
       <c r="I115" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="15">
+        <v>0</v>
+      </c>
+      <c r="K115" s="15">
+        <v>0</v>
+      </c>
+      <c r="L115" s="15">
+        <v>0</v>
+      </c>
+      <c r="M115" s="15">
+        <v>0</v>
+      </c>
+      <c r="N115" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
@@ -2893,37 +4253,57 @@
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11">
+        <v>19553</v>
+      </c>
+      <c r="F117" s="11">
+        <v>-20477</v>
+      </c>
+      <c r="G117" s="11">
+        <v>0</v>
+      </c>
+      <c r="H117" s="11">
+        <v>0</v>
+      </c>
+      <c r="I117" s="11">
+        <v>1076</v>
+      </c>
+      <c r="J117" s="11">
         <v>5503</v>
       </c>
-      <c r="F117" s="11">
+      <c r="K117" s="11">
         <v>-6579</v>
       </c>
-      <c r="G117" s="11">
-        <v>0</v>
-      </c>
-      <c r="H117" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I117" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L117" s="11">
+        <v>0</v>
+      </c>
+      <c r="M117" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N117" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D118" s="13"/>
       <c r="E118" s="13">
@@ -2933,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="G118" s="13">
-        <v>0</v>
+        <v>8869</v>
       </c>
       <c r="H118" s="13">
         <v>0</v>
@@ -2941,72 +4321,132 @@
       <c r="I118" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="13">
+        <v>0</v>
+      </c>
+      <c r="K118" s="13">
+        <v>0</v>
+      </c>
+      <c r="L118" s="13">
+        <v>0</v>
+      </c>
+      <c r="M118" s="13">
+        <v>0</v>
+      </c>
+      <c r="N118" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H119" s="11">
-        <v>0</v>
-      </c>
-      <c r="I119" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="H119" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I119" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J119" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K119" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L119" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M119" s="11">
+        <v>0</v>
+      </c>
+      <c r="N119" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
       <c r="E120" s="17">
+        <v>19553</v>
+      </c>
+      <c r="F120" s="17">
+        <v>-20477</v>
+      </c>
+      <c r="G120" s="17">
+        <v>8869</v>
+      </c>
+      <c r="H120" s="17">
+        <v>0</v>
+      </c>
+      <c r="I120" s="17">
+        <v>1076</v>
+      </c>
+      <c r="J120" s="17">
         <v>5503</v>
       </c>
-      <c r="F120" s="17">
+      <c r="K120" s="17">
         <v>-6579</v>
       </c>
-      <c r="G120" s="17">
-        <v>0</v>
-      </c>
-      <c r="H120" s="17">
-        <v>0</v>
-      </c>
-      <c r="I120" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L120" s="17">
+        <v>0</v>
+      </c>
+      <c r="M120" s="17">
+        <v>0</v>
+      </c>
+      <c r="N120" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15">
+        <v>312957</v>
+      </c>
+      <c r="F121" s="15">
+        <v>260882</v>
+      </c>
+      <c r="G121" s="15">
+        <v>245461</v>
+      </c>
+      <c r="H121" s="15">
+        <v>392288</v>
+      </c>
+      <c r="I121" s="15">
+        <v>338969</v>
+      </c>
+      <c r="J121" s="15">
         <v>233782</v>
       </c>
-      <c r="F121" s="15">
+      <c r="K121" s="15">
         <v>321889</v>
       </c>
-      <c r="G121" s="15">
+      <c r="L121" s="15">
         <v>414377</v>
       </c>
-      <c r="H121" s="15">
+      <c r="M121" s="15">
         <v>221923</v>
       </c>
-      <c r="I121" s="15">
+      <c r="N121" s="15">
         <v>461511</v>
       </c>
     </row>

--- a/database/industries/kashi/kazar/product/quarterly_seprated.xlsx
+++ b/database/industries/kashi/kazar/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kazar\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kazar\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29E0B07-6B16-478B-A1E0-42BCCD588026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5456D4-4DB0-4E33-8708-B5B23F2D0B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="60">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -676,12 +676,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -696,7 +696,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -713,7 +713,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -730,7 +730,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -745,7 +745,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -762,7 +762,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -794,7 +794,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -831,7 +831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -846,7 +846,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -863,7 +863,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -875,20 +875,20 @@
       <c r="F11" s="11">
         <v>0</v>
       </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
+      <c r="G11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>17</v>
+      <c r="K11" s="11">
+        <v>0</v>
       </c>
       <c r="L11" s="11">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
@@ -909,37 +909,37 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>6132</v>
+        <v>5514</v>
       </c>
       <c r="F12" s="13">
-        <v>5514</v>
+        <v>6121</v>
       </c>
       <c r="G12" s="13">
-        <v>6121</v>
+        <v>5118</v>
       </c>
       <c r="H12" s="13">
-        <v>5118</v>
+        <v>5224</v>
       </c>
       <c r="I12" s="13">
-        <v>5224</v>
-      </c>
-      <c r="J12" s="13">
         <v>3705</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>17</v>
+      <c r="J12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="13">
+        <v>4421</v>
       </c>
       <c r="L12" s="13">
-        <v>4421</v>
+        <v>3772</v>
       </c>
       <c r="M12" s="13">
-        <v>3772</v>
+        <v>4701</v>
       </c>
       <c r="N12" s="13">
-        <v>4701</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -948,37 +948,37 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>8864</v>
+        <v>7693</v>
       </c>
       <c r="F13" s="11">
-        <v>7693</v>
+        <v>7060</v>
       </c>
       <c r="G13" s="11">
-        <v>7060</v>
+        <v>9209</v>
       </c>
       <c r="H13" s="11">
-        <v>9209</v>
+        <v>6346</v>
       </c>
       <c r="I13" s="11">
-        <v>6346</v>
-      </c>
-      <c r="J13" s="11">
         <v>3260</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>17</v>
+      <c r="J13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="11">
+        <v>4005</v>
       </c>
       <c r="L13" s="11">
-        <v>4005</v>
+        <v>2317</v>
       </c>
       <c r="M13" s="11">
-        <v>2317</v>
+        <v>4269</v>
       </c>
       <c r="N13" s="11">
-        <v>4269</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -998,63 +998,63 @@
       <c r="H14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="13">
+      <c r="I14" s="13">
         <v>2125</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>17</v>
+      <c r="J14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="13">
+        <v>3986</v>
       </c>
       <c r="L14" s="13">
-        <v>3986</v>
+        <v>3666</v>
       </c>
       <c r="M14" s="13">
-        <v>3666</v>
+        <v>2006</v>
       </c>
       <c r="N14" s="13">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15">
-        <v>14996</v>
+        <v>13207</v>
       </c>
       <c r="F15" s="15">
-        <v>13207</v>
+        <v>13181</v>
       </c>
       <c r="G15" s="15">
-        <v>13181</v>
+        <v>14327</v>
       </c>
       <c r="H15" s="15">
-        <v>14327</v>
+        <v>11570</v>
       </c>
       <c r="I15" s="15">
-        <v>11570</v>
+        <v>9090</v>
       </c>
       <c r="J15" s="15">
-        <v>9090</v>
+        <v>0</v>
       </c>
       <c r="K15" s="15">
-        <v>0</v>
+        <v>12412</v>
       </c>
       <c r="L15" s="15">
-        <v>12412</v>
+        <v>9755</v>
       </c>
       <c r="M15" s="15">
-        <v>9755</v>
+        <v>10976</v>
       </c>
       <c r="N15" s="15">
-        <v>10976</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11362</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1071,7 +1071,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -1172,11 +1172,11 @@
       <c r="I19" s="11">
         <v>0</v>
       </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>17</v>
+      <c r="J19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
       </c>
       <c r="L19" s="11">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>20</v>
       </c>
@@ -1211,11 +1211,11 @@
       <c r="I20" s="13">
         <v>0</v>
       </c>
-      <c r="J20" s="13">
-        <v>0</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>17</v>
+      <c r="J20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0</v>
       </c>
       <c r="L20" s="13">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>26</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>27</v>
       </c>
@@ -1281,7 +1281,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -1308,8 +1308,8 @@
       <c r="K23" s="11">
         <v>0</v>
       </c>
-      <c r="L23" s="11">
-        <v>0</v>
+      <c r="L23" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="M23" s="11" t="s">
         <v>17</v>
@@ -1318,7 +1318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>28</v>
       </c>
@@ -1339,11 +1339,11 @@
       <c r="I24" s="13">
         <v>0</v>
       </c>
-      <c r="J24" s="13">
-        <v>0</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>17</v>
+      <c r="J24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="13">
+        <v>0</v>
       </c>
       <c r="L24" s="13">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>29</v>
       </c>
@@ -1382,8 +1382,8 @@
       <c r="K25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="11" t="s">
-        <v>17</v>
+      <c r="L25" s="11">
+        <v>0</v>
       </c>
       <c r="M25" s="11">
         <v>0</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>30</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>31</v>
       </c>
@@ -1443,8 +1443,8 @@
       <c r="F27" s="15">
         <v>0</v>
       </c>
-      <c r="G27" s="15">
-        <v>0</v>
+      <c r="G27" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="H27" s="15" t="s">
         <v>17</v>
@@ -1468,7 +1468,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>33</v>
       </c>
@@ -1480,20 +1480,20 @@
       <c r="F28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="17">
-        <v>0</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>17</v>
+      <c r="G28" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="17">
+        <v>0</v>
       </c>
       <c r="I28" s="17">
         <v>0</v>
       </c>
-      <c r="J28" s="17">
-        <v>0</v>
-      </c>
-      <c r="K28" s="17" t="s">
-        <v>17</v>
+      <c r="J28" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="17">
+        <v>0</v>
       </c>
       <c r="L28" s="17">
         <v>0</v>
@@ -1505,44 +1505,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15">
-        <v>14996</v>
+        <v>13207</v>
       </c>
       <c r="F29" s="15">
-        <v>13207</v>
+        <v>13181</v>
       </c>
       <c r="G29" s="15">
-        <v>13181</v>
+        <v>14327</v>
       </c>
       <c r="H29" s="15">
-        <v>14327</v>
+        <v>11570</v>
       </c>
       <c r="I29" s="15">
-        <v>11570</v>
+        <v>9090</v>
       </c>
       <c r="J29" s="15">
-        <v>9090</v>
+        <v>0</v>
       </c>
       <c r="K29" s="15">
-        <v>0</v>
+        <v>12412</v>
       </c>
       <c r="L29" s="15">
-        <v>12412</v>
+        <v>9755</v>
       </c>
       <c r="M29" s="15">
-        <v>9755</v>
+        <v>10976</v>
       </c>
       <c r="N29" s="15">
-        <v>10976</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11362</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1557,7 +1557,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1572,7 +1572,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1587,7 +1587,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>35</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1639,7 +1639,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>36</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>16</v>
       </c>
@@ -1665,37 +1665,37 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>0</v>
+        <v>36634</v>
       </c>
       <c r="F36" s="11">
-        <v>36634</v>
-      </c>
-      <c r="G36" s="11">
         <v>-36634</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="11">
+      <c r="G36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="11">
         <v>-232</v>
       </c>
+      <c r="I36" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="J36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K36" s="11" t="s">
-        <v>17</v>
+      <c r="K36" s="11">
+        <v>161</v>
       </c>
       <c r="L36" s="11">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="M36" s="11">
         <v>119</v>
       </c>
       <c r="N36" s="11">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>18</v>
       </c>
@@ -1704,37 +1704,37 @@
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>275158</v>
+        <v>259160</v>
       </c>
       <c r="F37" s="13">
-        <v>259160</v>
+        <v>368857</v>
       </c>
       <c r="G37" s="13">
-        <v>368857</v>
+        <v>387898</v>
       </c>
       <c r="H37" s="13">
-        <v>387898</v>
+        <v>369039</v>
       </c>
       <c r="I37" s="13">
-        <v>369039</v>
-      </c>
-      <c r="J37" s="13">
         <v>342016</v>
       </c>
-      <c r="K37" s="13" t="s">
-        <v>17</v>
+      <c r="J37" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="13">
+        <v>664941</v>
       </c>
       <c r="L37" s="13">
-        <v>664941</v>
+        <v>553062</v>
       </c>
       <c r="M37" s="13">
-        <v>553062</v>
+        <v>701409</v>
       </c>
       <c r="N37" s="13">
-        <v>701409</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>676937</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>20</v>
       </c>
@@ -1743,37 +1743,37 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>318503</v>
+        <v>264341</v>
       </c>
       <c r="F38" s="11">
-        <v>264341</v>
+        <v>247692</v>
       </c>
       <c r="G38" s="11">
-        <v>247692</v>
+        <v>463812</v>
       </c>
       <c r="H38" s="11">
-        <v>463812</v>
+        <v>317907</v>
       </c>
       <c r="I38" s="11">
-        <v>317907</v>
-      </c>
-      <c r="J38" s="11">
         <v>247612</v>
       </c>
-      <c r="K38" s="11" t="s">
-        <v>17</v>
+      <c r="J38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="11">
+        <v>397715</v>
       </c>
       <c r="L38" s="11">
-        <v>397715</v>
+        <v>227357</v>
       </c>
       <c r="M38" s="11">
-        <v>227357</v>
+        <v>411923</v>
       </c>
       <c r="N38" s="11">
-        <v>411923</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>357436</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>21</v>
       </c>
@@ -1793,63 +1793,63 @@
       <c r="H39" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="13">
+      <c r="I39" s="13">
         <v>23374</v>
       </c>
-      <c r="K39" s="13" t="s">
-        <v>17</v>
+      <c r="J39" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="13">
+        <v>59401</v>
       </c>
       <c r="L39" s="13">
-        <v>59401</v>
+        <v>54637</v>
       </c>
       <c r="M39" s="13">
-        <v>54637</v>
+        <v>34109</v>
       </c>
       <c r="N39" s="13">
-        <v>34109</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>68653</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15">
-        <v>593661</v>
+        <v>560135</v>
       </c>
       <c r="F40" s="15">
-        <v>560135</v>
+        <v>579915</v>
       </c>
       <c r="G40" s="15">
-        <v>579915</v>
+        <v>851710</v>
       </c>
       <c r="H40" s="15">
-        <v>851710</v>
+        <v>686714</v>
       </c>
       <c r="I40" s="15">
-        <v>686714</v>
+        <v>613002</v>
       </c>
       <c r="J40" s="15">
-        <v>613002</v>
+        <v>0</v>
       </c>
       <c r="K40" s="15">
-        <v>0</v>
+        <v>1122218</v>
       </c>
       <c r="L40" s="15">
-        <v>1122218</v>
+        <v>835175</v>
       </c>
       <c r="M40" s="15">
-        <v>835175</v>
+        <v>1147560</v>
       </c>
       <c r="N40" s="15">
-        <v>1147560</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1103273</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>38</v>
       </c>
@@ -1866,7 +1866,7 @@
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>24</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>25</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>18</v>
       </c>
@@ -1967,11 +1967,11 @@
       <c r="I44" s="11">
         <v>0</v>
       </c>
-      <c r="J44" s="11">
-        <v>0</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>17</v>
+      <c r="J44" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
       </c>
       <c r="L44" s="11">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>20</v>
       </c>
@@ -2006,11 +2006,11 @@
       <c r="I45" s="13">
         <v>0</v>
       </c>
-      <c r="J45" s="13">
-        <v>0</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>17</v>
+      <c r="J45" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="13">
+        <v>0</v>
       </c>
       <c r="L45" s="13">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
         <v>26</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>39</v>
       </c>
@@ -2076,7 +2076,7 @@
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>16</v>
       </c>
@@ -2085,28 +2085,28 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>23517</v>
+        <v>0</v>
       </c>
       <c r="F48" s="11">
-        <v>0</v>
+        <v>-36634</v>
       </c>
       <c r="G48" s="11">
-        <v>-36634</v>
+        <v>0</v>
       </c>
       <c r="H48" s="11">
-        <v>0</v>
+        <v>4140</v>
       </c>
       <c r="I48" s="11">
-        <v>4140</v>
+        <v>6579</v>
       </c>
       <c r="J48" s="11">
-        <v>6579</v>
+        <v>-6579</v>
       </c>
       <c r="K48" s="11">
-        <v>-6579</v>
-      </c>
-      <c r="L48" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="M48" s="11" t="s">
         <v>17</v>
@@ -2115,7 +2115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>28</v>
       </c>
@@ -2124,13 +2124,13 @@
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
-        <v>0</v>
+        <v>-28136</v>
       </c>
       <c r="F49" s="13">
-        <v>-28136</v>
+        <v>34111</v>
       </c>
       <c r="G49" s="13">
-        <v>34111</v>
+        <v>0</v>
       </c>
       <c r="H49" s="13">
         <v>0</v>
@@ -2138,11 +2138,11 @@
       <c r="I49" s="13">
         <v>0</v>
       </c>
-      <c r="J49" s="13">
-        <v>0</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>17</v>
+      <c r="J49" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="13">
+        <v>0</v>
       </c>
       <c r="L49" s="13">
         <v>0</v>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>29</v>
       </c>
@@ -2183,8 +2183,8 @@
       <c r="K50" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L50" s="11" t="s">
-        <v>17</v>
+      <c r="L50" s="11">
+        <v>0</v>
       </c>
       <c r="M50" s="11">
         <v>0</v>
@@ -2193,32 +2193,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
       <c r="E51" s="17">
-        <v>23517</v>
+        <v>-28136</v>
       </c>
       <c r="F51" s="17">
-        <v>-28136</v>
+        <v>-2523</v>
       </c>
       <c r="G51" s="17">
-        <v>-2523</v>
+        <v>0</v>
       </c>
       <c r="H51" s="17">
-        <v>0</v>
+        <v>4140</v>
       </c>
       <c r="I51" s="17">
-        <v>4140</v>
+        <v>6579</v>
       </c>
       <c r="J51" s="17">
-        <v>6579</v>
+        <v>-6579</v>
       </c>
       <c r="K51" s="17">
-        <v>-6579</v>
+        <v>0</v>
       </c>
       <c r="L51" s="17">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
         <v>31</v>
       </c>
@@ -2244,8 +2244,8 @@
       <c r="F52" s="15">
         <v>0</v>
       </c>
-      <c r="G52" s="15">
-        <v>0</v>
+      <c r="G52" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="H52" s="15" t="s">
         <v>17</v>
@@ -2269,7 +2269,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="16" t="s">
         <v>33</v>
       </c>
@@ -2283,20 +2283,20 @@
       <c r="F53" s="17">
         <v>0</v>
       </c>
-      <c r="G53" s="17">
-        <v>0</v>
-      </c>
-      <c r="H53" s="17" t="s">
-        <v>17</v>
+      <c r="G53" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="17">
+        <v>0</v>
       </c>
       <c r="I53" s="17">
         <v>0</v>
       </c>
-      <c r="J53" s="17">
-        <v>0</v>
-      </c>
-      <c r="K53" s="17" t="s">
-        <v>17</v>
+      <c r="J53" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="17">
+        <v>0</v>
       </c>
       <c r="L53" s="17">
         <v>0</v>
@@ -2308,44 +2308,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15">
-        <v>617178</v>
+        <v>531999</v>
       </c>
       <c r="F54" s="15">
-        <v>531999</v>
+        <v>577392</v>
       </c>
       <c r="G54" s="15">
-        <v>577392</v>
+        <v>851710</v>
       </c>
       <c r="H54" s="15">
-        <v>851710</v>
+        <v>690854</v>
       </c>
       <c r="I54" s="15">
-        <v>690854</v>
+        <v>619581</v>
       </c>
       <c r="J54" s="15">
-        <v>619581</v>
+        <v>-6579</v>
       </c>
       <c r="K54" s="15">
-        <v>-6579</v>
+        <v>1122218</v>
       </c>
       <c r="L54" s="15">
-        <v>1122218</v>
+        <v>835175</v>
       </c>
       <c r="M54" s="15">
-        <v>835175</v>
+        <v>1147560</v>
       </c>
       <c r="N54" s="15">
-        <v>1147560</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1103273</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2360,7 +2360,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2375,7 +2375,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2390,7 +2390,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>40</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2442,7 +2442,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>41</v>
       </c>
@@ -2459,7 +2459,7 @@
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>16</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>18</v>
       </c>
@@ -2507,37 +2507,37 @@
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>44872472</v>
+        <v>47000363</v>
       </c>
       <c r="F62" s="13">
-        <v>47000363</v>
+        <v>63508437</v>
       </c>
       <c r="G62" s="13">
-        <v>63508437</v>
+        <v>75790934</v>
       </c>
       <c r="H62" s="13">
-        <v>75790934</v>
+        <v>70642994</v>
       </c>
       <c r="I62" s="13">
-        <v>70642994</v>
+        <v>96369682</v>
       </c>
       <c r="J62" s="13">
-        <v>96369682</v>
+        <v>145897466</v>
       </c>
       <c r="K62" s="13">
-        <v>145897466</v>
+        <v>150405112</v>
       </c>
       <c r="L62" s="13">
-        <v>150405112</v>
+        <v>146623012</v>
       </c>
       <c r="M62" s="13">
-        <v>146623012</v>
+        <v>149204212</v>
       </c>
       <c r="N62" s="13">
-        <v>149204212</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>156952701</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>20</v>
       </c>
@@ -2546,37 +2546,37 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>35932198</v>
+        <v>34361237</v>
       </c>
       <c r="F63" s="11">
-        <v>34361237</v>
+        <v>35004522</v>
       </c>
       <c r="G63" s="11">
-        <v>35004522</v>
+        <v>50365078</v>
       </c>
       <c r="H63" s="11">
-        <v>50365078</v>
+        <v>50095651</v>
       </c>
       <c r="I63" s="11">
-        <v>50095651</v>
+        <v>71949942</v>
       </c>
       <c r="J63" s="11">
-        <v>71949942</v>
+        <v>73943501</v>
       </c>
       <c r="K63" s="11">
-        <v>73943501</v>
+        <v>99304619</v>
       </c>
       <c r="L63" s="11">
-        <v>99304619</v>
+        <v>98125593</v>
       </c>
       <c r="M63" s="11">
-        <v>98125593</v>
+        <v>96491684</v>
       </c>
       <c r="N63" s="11">
-        <v>96491684</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>101285350</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>21</v>
       </c>
@@ -2596,26 +2596,26 @@
       <c r="H64" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I64" s="13" t="s">
-        <v>17</v>
+      <c r="I64" s="13">
+        <v>10999529</v>
       </c>
       <c r="J64" s="13">
-        <v>10999529</v>
+        <v>10999809</v>
       </c>
       <c r="K64" s="13">
-        <v>10999809</v>
+        <v>14902408</v>
       </c>
       <c r="L64" s="13">
-        <v>14902408</v>
+        <v>14903710</v>
       </c>
       <c r="M64" s="13">
-        <v>14903710</v>
+        <v>17003490</v>
       </c>
       <c r="N64" s="13">
-        <v>17003490</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19503693</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>44</v>
       </c>
@@ -2632,7 +2632,7 @@
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>24</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>25</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>18</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
         <v>20</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>45</v>
       </c>
@@ -2805,7 +2805,7 @@
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>16</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>28</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>29</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2937,7 +2937,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2952,7 +2952,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2967,7 +2967,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
         <v>46</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3019,7 +3019,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>47</v>
       </c>
@@ -3036,7 +3036,7 @@
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>16</v>
       </c>
@@ -3050,17 +3050,17 @@
       <c r="F80" s="11">
         <v>0</v>
       </c>
-      <c r="G80" s="11">
-        <v>0</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I80" s="11">
-        <v>0</v>
-      </c>
-      <c r="J80" s="11" t="s">
-        <v>17</v>
+      <c r="G80" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="11">
+        <v>0</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="11">
+        <v>0</v>
       </c>
       <c r="K80" s="11">
         <v>0</v>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>18</v>
       </c>
@@ -3084,37 +3084,37 @@
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
-        <v>-149222</v>
+        <v>-182269</v>
       </c>
       <c r="F81" s="13">
-        <v>-182269</v>
+        <v>-233570</v>
       </c>
       <c r="G81" s="13">
-        <v>-233570</v>
+        <v>-275149</v>
       </c>
       <c r="H81" s="13">
-        <v>-275149</v>
+        <v>-205949</v>
       </c>
       <c r="I81" s="13">
-        <v>-205949</v>
+        <v>-255539</v>
       </c>
       <c r="J81" s="13">
-        <v>-255539</v>
+        <v>-476053</v>
       </c>
       <c r="K81" s="13">
-        <v>-476053</v>
+        <v>-510556</v>
       </c>
       <c r="L81" s="13">
-        <v>-510556</v>
+        <v>-430716</v>
       </c>
       <c r="M81" s="13">
-        <v>-430716</v>
+        <v>-497084</v>
       </c>
       <c r="N81" s="13">
-        <v>-497084</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-602480</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>20</v>
       </c>
@@ -3123,37 +3123,37 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>-151035</v>
+        <v>-96507</v>
       </c>
       <c r="F82" s="11">
-        <v>-96507</v>
+        <v>-109753</v>
       </c>
       <c r="G82" s="11">
-        <v>-109753</v>
+        <v>-184273</v>
       </c>
       <c r="H82" s="11">
-        <v>-184273</v>
+        <v>-137987</v>
       </c>
       <c r="I82" s="11">
-        <v>-137987</v>
+        <v>-128792</v>
       </c>
       <c r="J82" s="11">
-        <v>-128792</v>
+        <v>-107569</v>
       </c>
       <c r="K82" s="11">
-        <v>-107569</v>
+        <v>-197285</v>
       </c>
       <c r="L82" s="11">
-        <v>-197285</v>
+        <v>-182536</v>
       </c>
       <c r="M82" s="11">
-        <v>-182536</v>
+        <v>-167992</v>
       </c>
       <c r="N82" s="11">
-        <v>-167992</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-242866</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="12" t="s">
         <v>21</v>
       </c>
@@ -3173,8 +3173,8 @@
       <c r="H83" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I83" s="13" t="s">
-        <v>17</v>
+      <c r="I83" s="13">
+        <v>0</v>
       </c>
       <c r="J83" s="13">
         <v>0</v>
@@ -3186,50 +3186,50 @@
         <v>0</v>
       </c>
       <c r="M83" s="13">
-        <v>0</v>
+        <v>-20973</v>
       </c>
       <c r="N83" s="13">
-        <v>-20973</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-8821</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15">
-        <v>-300257</v>
+        <v>-278776</v>
       </c>
       <c r="F84" s="15">
-        <v>-278776</v>
+        <v>-343323</v>
       </c>
       <c r="G84" s="15">
-        <v>-343323</v>
+        <v>-459422</v>
       </c>
       <c r="H84" s="15">
-        <v>-459422</v>
+        <v>-343936</v>
       </c>
       <c r="I84" s="15">
-        <v>-343936</v>
+        <v>-384331</v>
       </c>
       <c r="J84" s="15">
-        <v>-384331</v>
+        <v>-583622</v>
       </c>
       <c r="K84" s="15">
-        <v>-583622</v>
+        <v>-707841</v>
       </c>
       <c r="L84" s="15">
-        <v>-707841</v>
+        <v>-613252</v>
       </c>
       <c r="M84" s="15">
-        <v>-613252</v>
+        <v>-686049</v>
       </c>
       <c r="N84" s="15">
-        <v>-686049</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-854167</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>49</v>
       </c>
@@ -3246,7 +3246,7 @@
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>24</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="12" t="s">
         <v>25</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>18</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>20</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="14" t="s">
         <v>50</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>51</v>
       </c>
@@ -3456,7 +3456,7 @@
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>16</v>
       </c>
@@ -3465,28 +3465,28 @@
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
-        <v>-3964</v>
+        <v>7659</v>
       </c>
       <c r="F92" s="11">
-        <v>7659</v>
+        <v>0</v>
       </c>
       <c r="G92" s="11">
         <v>0</v>
       </c>
       <c r="H92" s="11">
-        <v>0</v>
+        <v>-3064</v>
       </c>
       <c r="I92" s="11">
-        <v>-3064</v>
+        <v>3064</v>
       </c>
       <c r="J92" s="11">
-        <v>3064</v>
+        <v>0</v>
       </c>
       <c r="K92" s="11">
         <v>0</v>
       </c>
-      <c r="L92" s="11">
-        <v>0</v>
+      <c r="L92" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="M92" s="11" t="s">
         <v>17</v>
@@ -3495,7 +3495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="12" t="s">
         <v>28</v>
       </c>
@@ -3507,10 +3507,10 @@
         <v>0</v>
       </c>
       <c r="F93" s="13">
-        <v>0</v>
+        <v>-25242</v>
       </c>
       <c r="G93" s="13">
-        <v>-25242</v>
+        <v>0</v>
       </c>
       <c r="H93" s="13">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>29</v>
       </c>
@@ -3563,8 +3563,8 @@
       <c r="K94" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L94" s="11" t="s">
-        <v>17</v>
+      <c r="L94" s="11">
+        <v>0</v>
       </c>
       <c r="M94" s="11">
         <v>0</v>
@@ -3573,29 +3573,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
       <c r="E95" s="17">
-        <v>-3964</v>
+        <v>7659</v>
       </c>
       <c r="F95" s="17">
-        <v>7659</v>
+        <v>-25242</v>
       </c>
       <c r="G95" s="17">
-        <v>-25242</v>
+        <v>0</v>
       </c>
       <c r="H95" s="17">
-        <v>0</v>
+        <v>-3064</v>
       </c>
       <c r="I95" s="17">
-        <v>-3064</v>
+        <v>3064</v>
       </c>
       <c r="J95" s="17">
-        <v>3064</v>
+        <v>0</v>
       </c>
       <c r="K95" s="17">
         <v>0</v>
@@ -3610,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="14" t="s">
         <v>31</v>
       </c>
@@ -3624,8 +3624,8 @@
       <c r="F96" s="15">
         <v>0</v>
       </c>
-      <c r="G96" s="15">
-        <v>0</v>
+      <c r="G96" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="H96" s="15" t="s">
         <v>17</v>
@@ -3649,7 +3649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="16" t="s">
         <v>33</v>
       </c>
@@ -3663,20 +3663,20 @@
       <c r="F97" s="17">
         <v>0</v>
       </c>
-      <c r="G97" s="17">
-        <v>0</v>
-      </c>
-      <c r="H97" s="17" t="s">
-        <v>17</v>
+      <c r="G97" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" s="17">
+        <v>0</v>
       </c>
       <c r="I97" s="17">
         <v>0</v>
       </c>
-      <c r="J97" s="17">
-        <v>0</v>
-      </c>
-      <c r="K97" s="17" t="s">
-        <v>17</v>
+      <c r="J97" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K97" s="17">
+        <v>0</v>
       </c>
       <c r="L97" s="17">
         <v>0</v>
@@ -3688,44 +3688,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
       <c r="E98" s="15">
-        <v>-304221</v>
+        <v>-271117</v>
       </c>
       <c r="F98" s="15">
-        <v>-271117</v>
+        <v>-368565</v>
       </c>
       <c r="G98" s="15">
-        <v>-368565</v>
+        <v>-459422</v>
       </c>
       <c r="H98" s="15">
-        <v>-459422</v>
+        <v>-347000</v>
       </c>
       <c r="I98" s="15">
-        <v>-347000</v>
+        <v>-381267</v>
       </c>
       <c r="J98" s="15">
-        <v>-381267</v>
+        <v>-583622</v>
       </c>
       <c r="K98" s="15">
-        <v>-583622</v>
+        <v>-707841</v>
       </c>
       <c r="L98" s="15">
-        <v>-707841</v>
+        <v>-613252</v>
       </c>
       <c r="M98" s="15">
-        <v>-613252</v>
+        <v>-686049</v>
       </c>
       <c r="N98" s="15">
-        <v>-686049</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-854167</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3740,7 +3740,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3755,7 +3755,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3770,7 +3770,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B102" s="7" t="s">
         <v>53</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3822,7 +3822,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>54</v>
       </c>
@@ -3839,7 +3839,7 @@
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>16</v>
       </c>
@@ -3848,37 +3848,37 @@
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11">
-        <v>0</v>
+        <v>36634</v>
       </c>
       <c r="F105" s="11">
-        <v>36634</v>
-      </c>
-      <c r="G105" s="11">
         <v>-36634</v>
       </c>
-      <c r="H105" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I105" s="11">
-        <v>0</v>
-      </c>
-      <c r="J105" s="11" t="s">
-        <v>17</v>
+      <c r="G105" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" s="11">
+        <v>0</v>
+      </c>
+      <c r="I105" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105" s="11">
+        <v>564</v>
       </c>
       <c r="K105" s="11">
-        <v>564</v>
+        <v>161</v>
       </c>
       <c r="L105" s="11">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="M105" s="11">
         <v>119</v>
       </c>
       <c r="N105" s="11">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>18</v>
       </c>
@@ -3887,37 +3887,37 @@
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13">
-        <v>125936</v>
+        <v>76891</v>
       </c>
       <c r="F106" s="13">
-        <v>76891</v>
+        <v>135287</v>
       </c>
       <c r="G106" s="13">
-        <v>135287</v>
+        <v>112749</v>
       </c>
       <c r="H106" s="13">
-        <v>112749</v>
+        <v>160598</v>
       </c>
       <c r="I106" s="13">
-        <v>160598</v>
+        <v>86477</v>
       </c>
       <c r="J106" s="13">
-        <v>86477</v>
+        <v>151452</v>
       </c>
       <c r="K106" s="13">
-        <v>151452</v>
+        <v>154385</v>
       </c>
       <c r="L106" s="13">
-        <v>154385</v>
+        <v>122346</v>
       </c>
       <c r="M106" s="13">
-        <v>122346</v>
+        <v>204325</v>
       </c>
       <c r="N106" s="13">
-        <v>204325</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>74457</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>20</v>
       </c>
@@ -3926,37 +3926,37 @@
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
-        <v>167468</v>
+        <v>167834</v>
       </c>
       <c r="F107" s="11">
-        <v>167834</v>
+        <v>137939</v>
       </c>
       <c r="G107" s="11">
-        <v>137939</v>
+        <v>279539</v>
       </c>
       <c r="H107" s="11">
-        <v>279539</v>
+        <v>177295</v>
       </c>
       <c r="I107" s="11">
-        <v>177295</v>
+        <v>118428</v>
       </c>
       <c r="J107" s="11">
-        <v>118428</v>
+        <v>118846</v>
       </c>
       <c r="K107" s="11">
-        <v>118846</v>
+        <v>200430</v>
       </c>
       <c r="L107" s="11">
-        <v>200430</v>
+        <v>44821</v>
       </c>
       <c r="M107" s="11">
-        <v>44821</v>
+        <v>243931</v>
       </c>
       <c r="N107" s="11">
-        <v>243931</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>114570</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>21</v>
       </c>
@@ -3976,63 +3976,63 @@
       <c r="H108" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I108" s="13" t="s">
-        <v>17</v>
+      <c r="I108" s="13">
+        <v>23374</v>
       </c>
       <c r="J108" s="13">
-        <v>23374</v>
+        <v>57606</v>
       </c>
       <c r="K108" s="13">
-        <v>57606</v>
+        <v>59401</v>
       </c>
       <c r="L108" s="13">
-        <v>59401</v>
+        <v>54637</v>
       </c>
       <c r="M108" s="13">
-        <v>54637</v>
+        <v>13136</v>
       </c>
       <c r="N108" s="13">
-        <v>13136</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>59832</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="15">
-        <v>293404</v>
+        <v>281359</v>
       </c>
       <c r="F109" s="15">
-        <v>281359</v>
+        <v>236592</v>
       </c>
       <c r="G109" s="15">
-        <v>236592</v>
+        <v>392288</v>
       </c>
       <c r="H109" s="15">
-        <v>392288</v>
+        <v>337893</v>
       </c>
       <c r="I109" s="15">
-        <v>337893</v>
+        <v>228279</v>
       </c>
       <c r="J109" s="15">
-        <v>228279</v>
+        <v>328468</v>
       </c>
       <c r="K109" s="15">
-        <v>328468</v>
+        <v>414377</v>
       </c>
       <c r="L109" s="15">
-        <v>414377</v>
+        <v>221923</v>
       </c>
       <c r="M109" s="15">
-        <v>221923</v>
+        <v>461511</v>
       </c>
       <c r="N109" s="15">
-        <v>461511</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>249106</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>56</v>
       </c>
@@ -4049,7 +4049,7 @@
       <c r="M110" s="9"/>
       <c r="N110" s="9"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>24</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="12" t="s">
         <v>25</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>18</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>20</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="14" t="s">
         <v>57</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
         <v>58</v>
       </c>
@@ -4259,7 +4259,7 @@
       <c r="M116" s="9"/>
       <c r="N116" s="9"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>16</v>
       </c>
@@ -4268,28 +4268,28 @@
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11">
-        <v>19553</v>
+        <v>-20477</v>
       </c>
       <c r="F117" s="11">
-        <v>-20477</v>
+        <v>0</v>
       </c>
       <c r="G117" s="11">
         <v>0</v>
       </c>
       <c r="H117" s="11">
-        <v>0</v>
+        <v>1076</v>
       </c>
       <c r="I117" s="11">
-        <v>1076</v>
+        <v>5503</v>
       </c>
       <c r="J117" s="11">
-        <v>5503</v>
+        <v>-6579</v>
       </c>
       <c r="K117" s="11">
-        <v>-6579</v>
-      </c>
-      <c r="L117" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L117" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="M117" s="11" t="s">
         <v>17</v>
@@ -4298,7 +4298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="12" t="s">
         <v>28</v>
       </c>
@@ -4310,10 +4310,10 @@
         <v>0</v>
       </c>
       <c r="F118" s="13">
-        <v>0</v>
+        <v>8869</v>
       </c>
       <c r="G118" s="13">
-        <v>8869</v>
+        <v>0</v>
       </c>
       <c r="H118" s="13">
         <v>0</v>
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>29</v>
       </c>
@@ -4366,8 +4366,8 @@
       <c r="K119" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L119" s="11" t="s">
-        <v>17</v>
+      <c r="L119" s="11">
+        <v>0</v>
       </c>
       <c r="M119" s="11">
         <v>0</v>
@@ -4376,32 +4376,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
       <c r="E120" s="17">
-        <v>19553</v>
+        <v>-20477</v>
       </c>
       <c r="F120" s="17">
-        <v>-20477</v>
+        <v>8869</v>
       </c>
       <c r="G120" s="17">
-        <v>8869</v>
+        <v>0</v>
       </c>
       <c r="H120" s="17">
-        <v>0</v>
+        <v>1076</v>
       </c>
       <c r="I120" s="17">
-        <v>1076</v>
+        <v>5503</v>
       </c>
       <c r="J120" s="17">
-        <v>5503</v>
+        <v>-6579</v>
       </c>
       <c r="K120" s="17">
-        <v>-6579</v>
+        <v>0</v>
       </c>
       <c r="L120" s="17">
         <v>0</v>
@@ -4413,41 +4413,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15">
-        <v>312957</v>
+        <v>260882</v>
       </c>
       <c r="F121" s="15">
-        <v>260882</v>
+        <v>245461</v>
       </c>
       <c r="G121" s="15">
-        <v>245461</v>
+        <v>392288</v>
       </c>
       <c r="H121" s="15">
-        <v>392288</v>
+        <v>338969</v>
       </c>
       <c r="I121" s="15">
-        <v>338969</v>
+        <v>233782</v>
       </c>
       <c r="J121" s="15">
-        <v>233782</v>
+        <v>321889</v>
       </c>
       <c r="K121" s="15">
-        <v>321889</v>
+        <v>414377</v>
       </c>
       <c r="L121" s="15">
-        <v>414377</v>
+        <v>221923</v>
       </c>
       <c r="M121" s="15">
-        <v>221923</v>
+        <v>461511</v>
       </c>
       <c r="N121" s="15">
-        <v>461511</v>
+        <v>249106</v>
       </c>
     </row>
   </sheetData>
